--- a/biology/Médecine/Classe_ATC_V09/Classe_ATC_V09.xlsx
+++ b/biology/Médecine/Classe_ATC_V09/Classe_ATC_V09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V09, dénommée « Produits radiopharmaceutiques à usage diagnostique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV09[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V09, dénommée « Produits radiopharmaceutiques à usage diagnostique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV09. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
 </t>
         </is>
       </c>
@@ -513,15 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V09AA Dérivés du 99mTc-Technétium
-V09AA01 99mTc-Technétium examétazime (en)
-V09AA02 99mTc-Technétium bicisate
-V09AB Dérivés de l'123I-Iode
-V09AB01 123I-Iode iofétamine (en)
+          <t>V09AA Dérivés du 99mTc-Technétium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>V09AA01 99mTc-Technétium examétazime (en)
+V09AA02 99mTc-Technétium bicisate</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V09A Système nerveux central</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V09AB Dérivés de l'123I-Iode</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>V09AB01 123I-Iode iofétamine (en)
 V09AB02 123I-Iode jolopride (en)
-V09AB03 123I-Iode ioflupane
-V09AX Autres produits radiopharmaceutiques à usage diagnostique pour le système nerveux central
-V09AX01 111In-Indium pentétate
+V09AB03 123I-Iode ioflupane</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V09A Système nerveux central</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V09AX Autres produits radiopharmaceutiques à usage diagnostique pour le système nerveux central</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>V09AX01 111In-Indium pentétate
 V09AX03 124I-Iode 2bêta-carbométhoxy-3bêta-(4-iodophényl)-tropane
 V09AX04 18F-Flutémétamol (en)
 V09AX05 18F-Florbétapir (en)
@@ -529,312 +614,658 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>V09B Squelette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>V09BA Dérivés du 99mTc-Technétium
-V09BA01 99mTc-Technétium oxidronate
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V09BA Dérivés du 99mTc-Technétium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>V09BA01 99mTc-Technétium oxidronate
 V09BA02 99mTc-Technétium médronate (en)
 V09BA03 99mTc-Technétium pyrophosphate
 V09BA04 99mTc-Technétium acide diphosphonopropanédicarbonique</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>V09C Système rénal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>V09CA Dérivés du 99mTc-Technétium
-V09CA01 99mTc-Technétium pentétate
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V09CA Dérivés du 99mTc-Technétium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>V09CA01 99mTc-Technétium pentétate
 V09CA02 99mTc-Technétium succimer
 V09CA03 99mTc-Technétium mertiatide
 V09CA04 99mTc-Technétium glucoheptonate
 V09CA05 99mTc-Technétium gluconate
-V09CA06 99mTc-Technétium éthylènedicystéine
-V09CX Autres produits radiopharmaceutiques à usage diagnostique pour la fonction rénale
-V09CX01 123I-Iode iodohippurate
+V09CA06 99mTc-Technétium éthylènedicystéine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V09C Système rénal</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V09CX Autres produits radiopharmaceutiques à usage diagnostique pour la fonction rénale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>V09CX01 123I-Iode iodohippurate
 V09CX02 131I-Iode iodohippurate
 V09CX03 125I-Iode iothalamate
 V09CX04 51Cr-Chrome édétate</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>V09D Système hépatique et système phagocytaire mononucléaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>V09DA Dérivés du 99mTc-Technétium
-V09DA01 99mTc-Technétium disofénine
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V09DA Dérivés du 99mTc-Technétium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>V09DA01 99mTc-Technétium disofénine
 V09DA02 99mTc-Technétium etifénine
 V09DA03 99mTc-Technétium lidofénine
 V09DA04 99mTc-Technétium mébrofénine (en)
-V09DA05 99mTc-Technétium galtifénine
-V09DB 99mTc-Technétium, particules et colloïdes
-V09DB01 99mTc-Technétium nanocolloïdes
+V09DA05 99mTc-Technétium galtifénine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V09D Système hépatique et système phagocytaire mononucléaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V09DB 99mTc-Technétium, particules et colloïdes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>V09DB01 99mTc-Technétium nanocolloïdes
 V09DB02 99mTc-Technétium microcolloïdes
 V09DB03 99mTc-Technétium millimicrosphères
 V09DB04 99mTc-Technétium colloïdes stannifères
 V09DB05 99mTc-Technétium colloïdes soufrés
 V09DB06 99mTc-Technétium colloïdes de sulfure de rhénium
-V09DB07 99mTc-Technétium phytate
-V09DX Autres produits radiopharmaceutiques à usage diagnostique pour la fonction hépatique ou le système réticulo-endothélial
-V09DX01 Acide tauroselcholique</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+V09DB07 99mTc-Technétium phytate</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V09D Système hépatique et système phagocytaire mononucléaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V09DX Autres produits radiopharmaceutiques à usage diagnostique pour la fonction hépatique ou le système réticulo-endothélial</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>V09DX01 Acide tauroselcholique</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>V09E Appareil respiratoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>V09EA 99mTc-Technétium, pour inhalation
-V09EA01 99mTc-Technétium pentétate
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V09EA 99mTc-Technétium, pour inhalation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>V09EA01 99mTc-Technétium pentétate
 V09EA02 99mTc-Technétium technegas
-V09EA03 99mTc-Technétium nanocolloïdal
-V09EB 99mTc-Technétium, particules pour injection
-V09EB01 99mTc-Technétium macrosalb
-V09EB02 99mTc-Technétium microsphères
-V09EX Autres produits radiopharmaceutiques à usage diagnostique pour l'appareil respiratoire
-V09EX01 81mKr-Krypton gaz
+V09EA03 99mTc-Technétium nanocolloïdal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>V09E Appareil respiratoire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V09EB 99mTc-Technétium, particules pour injection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>V09EB01 99mTc-Technétium macrosalb
+V09EB02 99mTc-Technétium microsphères</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>V09E Appareil respiratoire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V09EX Autres produits radiopharmaceutiques à usage diagnostique pour l'appareil respiratoire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>V09EX01 81mKr-Krypton gaz
 V09EX02 127Xe-Xénon gaz
 V09EX03 133Xe-Xénon gaz</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>V09F Thyroïde</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>V09FX Divers radiopharmaceutiques à usage diagnostique pour la thyroïde
-V09FX01 99mTC-Technétium pertechnétate
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>V09FX Divers radiopharmaceutiques à usage diagnostique pour la thyroïde</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>V09FX01 99mTC-Technétium pertechnétate
 V09FX02 123I-Iode sodium iodure
 V09FX03 131I-Iode sodium iodure
 V09FX04 124I-Iodure de sodium</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>V09G Système Cardio-vasculaire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>V09GA Dérivés du 99mTc-Technétium
-V09GA01 99mTc-Technétium sestamibi (en)
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>V09GA Dérivés du 99mTc-Technétium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>V09GA01 99mTc-Technétium sestamibi (en)
 V09GA02 99mTc-Technétium tétrofosmine (en)
 V09GA03 99mTc-Technétium téboroxime
 V09GA04 99mTc-Technétium albumine humaine
 V09GA05 99mTc-Technétium furifosmine
 V09GA06 99mTc-Technétium cellules marquées par un agent stanneux
-V09GA07 99mTc-Technétium apcitide
-V09GB Dérivés du 125I-Iode
-V09GB01 125I-Iode fibrinogène humain
-V09GB02 125I-Iode albumine humaine
-V09GX Autres produits radiopharmaceutiques à usage diagnostique pour l'appareil cardiovasculaire
-V09GX01 201Tl-Thallium chlorure
+V09GA07 99mTc-Technétium apcitide</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>V09G Système Cardio-vasculaire</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>V09GB Dérivés du 125I-Iode</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>V09GB01 125I-Iode fibrinogène humain
+V09GB02 125I-Iode albumine humaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>V09G Système Cardio-vasculaire</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>V09GX Autres produits radiopharmaceutiques à usage diagnostique pour l'appareil cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>V09GX01 201Tl-Thallium chlorure
 V09GX02 111In-Indium imciromab (en)
 V09GX03 51Cr-Chrome cellules marquées au chromate
 V09GX04 Chlorure de rubidium 82Rb</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>V09H Détection d'une inflammation et d'une infection</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>V09HA Dérivés du 99mTc-Technétium
-V09HA01 99mTc-Technétium immunoglobuline humaine
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>V09HA Dérivés du 99mTc-Technétium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>V09HA01 99mTc-Technétium immunoglobuline humaine
 V09HA02 99mTc-Technétium cellules marquées par l'examétazime (en)
 V09HA03 99mTc-Technétium anticorps antigranulocyte
-V09HA04 99mTc-Technétium sulésomab (en)
-V09HB Dérivés de l'111In-Indium
-V09HB01 111In-Indium cellules marquées par l'oxinate
-V09HB02 111In-Indium cellules marquées par le tropolonate
-V09HX Autres produits radiopharmaceutiques à usage diagnostique
-V09HX01 67Ga-Gallium citrate</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+V09HA04 99mTc-Technétium sulésomab (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>V09H Détection d'une inflammation et d'une infection</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>V09HB Dérivés de l'111In-Indium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>V09HB01 111In-Indium cellules marquées par l'oxinate
+V09HB02 111In-Indium cellules marquées par le tropolonate</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>V09H Détection d'une inflammation et d'une infection</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>V09HX Autres produits radiopharmaceutiques à usage diagnostique</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>V09HX01 67Ga-Gallium citrate</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>V09I Détection d'une tumeur</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>V09IA Dérivés du 99mTc-Technétium
-V09IA01 99mTc-Technétium anticorps anti-antigène carcinoembryonnaire
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>V09IA Dérivés du 99mTc-Technétium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>V09IA01 99mTc-Technétium anticorps anti-antigène carcinoembryonnaire
 V09IA02 99mTc-Technétium anticorps antimélanome
 V09IA03 99mTc-Technétium succimer pentavalent
 V09IA04 99mTc-Technétium votumumab (en)
@@ -842,14 +1273,82 @@
 V09IA06 99mTc-Technétium arcitumomab (en)
 V09IA07 99mTc-Technétium octréotide hynique
 V09IA08 99mTc-Technétium étarfolatide
-V09IA09 99mTc-Technétium tilmanocept
-V09IB Dérivés du 111In-Indium
-V09IB01 111In-Indium pentétréotide
+V09IA09 99mTc-Technétium tilmanocept</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>V09I Détection d'une tumeur</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>V09IB Dérivés du 111In-Indium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>V09IB01 111In-Indium pentétréotide
 V09IB02 111In-Indium satumomab pendétide (en)
 V09IB03 111I-Indium anticorps anticarcinome ovarien
-V09IB04 111In-Indium capromab pendétide (en)
-V09IX Autres produits radiopharmaceutiques à usage diagnostique
-V09IX01 123I-Iode iobenguane
+V09IB04 111In-Indium capromab pendétide (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>V09I Détection d'une tumeur</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>V09IX Autres produits radiopharmaceutiques à usage diagnostique</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>V09IX01 123I-Iode iobenguane
 V09IX02 131I-Iode iobenguane
 V09IX03 125I-Iode-CC49 anticorps monoclonal (en)
 V09IX04 18F-Flurodésoxyglucose
@@ -864,38 +1363,77 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>V09X Autres produits radiopharmaceutiques à usage diagnostique</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>V09XA Dérivés de l'131I-Iode
-V09XA01 131I-Iode norcholestérol
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>V09XA Dérivés de l'131I-Iode</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>V09XA01 131I-Iode norcholestérol
 V09XA02 131I-Iode cholestérol
-V09XA03 131I-Iode albumine humaine
-V09XX Divers produits radiopharmaceutiques à usage diagnostique
-V09XX01 57Co-Cobalt cyanocobalamine
+V09XA03 131I-Iode albumine humaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>V09X Autres produits radiopharmaceutiques à usage diagnostique</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>V09XX Divers produits radiopharmaceutiques à usage diagnostique</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>V09XX01 57Co-Cobalt cyanocobalamine
 V09XX02 58Co-Cobalt cyanocobalamine
 V09XX03 75Se-Sélénium norcholestérol
 V09XX04 59Fe-Ferrique citrate</t>
